--- a/汽柴煤油2.0/data_input/EB-SC（期货指数）.xlsx
+++ b/汽柴煤油2.0/data_input/EB-SC（期货指数）.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3432"/>
+  <dimension ref="A1:D3434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40644,13 +40644,41 @@
         <v>45954</v>
       </c>
       <c r="B3432" t="n">
-        <v>1619.51</v>
+        <v>1649.5996</v>
       </c>
       <c r="C3432" t="n">
         <v>3095.25</v>
       </c>
       <c r="D3432" t="n">
-        <v>-393.0245</v>
+        <v>-409.8632</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>1635.0559</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>3030</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>-466.9743</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>1658.5813</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>3007.25</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>-502.8895</v>
       </c>
     </row>
   </sheetData>
